--- a/GestionDesAbsencesMigration/Excel files/importerSemaine.xlsx
+++ b/GestionDesAbsencesMigration/Excel files/importerSemaine.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E7B966-B354-45A5-A879-DC7577D48B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -58,11 +59,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,7 +118,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -186,6 +193,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -221,6 +245,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -396,17 +437,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:6" x14ac:dyDescent="0.25">
@@ -428,7 +469,7 @@
         <v>44197</v>
       </c>
       <c r="F5" s="1">
-        <v>44378</v>
+        <v>44203</v>
       </c>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.25">
@@ -436,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>44198</v>
+        <v>44204</v>
       </c>
       <c r="F6" s="1">
-        <v>44379</v>
+        <v>44210</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
@@ -447,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>44199</v>
+        <v>44211</v>
       </c>
       <c r="F7" s="1">
-        <v>44380</v>
+        <v>44217</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
@@ -458,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="1">
-        <v>44200</v>
+        <v>44218</v>
       </c>
       <c r="F8" s="1">
-        <v>44381</v>
+        <v>44224</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
@@ -469,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="E9" s="1">
-        <v>44201</v>
+        <v>44225</v>
       </c>
       <c r="F9" s="1">
-        <v>44382</v>
+        <v>44231</v>
       </c>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.25">
@@ -480,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="E10" s="1">
-        <v>44202</v>
+        <v>44232</v>
       </c>
       <c r="F10" s="1">
-        <v>44383</v>
+        <v>44238</v>
       </c>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.25">
@@ -491,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="1">
-        <v>44203</v>
+        <v>44239</v>
       </c>
       <c r="F11" s="1">
-        <v>44384</v>
+        <v>44245</v>
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.25">
@@ -502,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="1">
-        <v>44204</v>
+        <v>44246</v>
       </c>
       <c r="F12" s="1">
-        <v>44385</v>
+        <v>44252</v>
       </c>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.25">
@@ -513,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="E13" s="1">
-        <v>44205</v>
+        <v>44253</v>
       </c>
       <c r="F13" s="1">
-        <v>44386</v>
+        <v>44259</v>
       </c>
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.25">
@@ -524,13 +565,14 @@
         <v>12</v>
       </c>
       <c r="E14" s="1">
-        <v>44206</v>
+        <v>44260</v>
       </c>
       <c r="F14" s="1">
-        <v>44387</v>
+        <v>44266</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GestionDesAbsencesMigration/Excel files/importerSemaine.xlsx
+++ b/GestionDesAbsencesMigration/Excel files/importerSemaine.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E7B966-B354-45A5-A879-DC7577D48B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Code</t>
   </si>
@@ -25,32 +26,50 @@
     <t>date Fin</t>
   </si>
   <si>
-    <t>15/1/2021</t>
-  </si>
-  <si>
-    <t>15/2/2021</t>
-  </si>
-  <si>
-    <t>15/3/2021</t>
-  </si>
-  <si>
-    <t>S 11</t>
-  </si>
-  <si>
-    <t>S 12</t>
-  </si>
-  <si>
-    <t>S 13</t>
+    <t>S 1</t>
+  </si>
+  <si>
+    <t>S 2</t>
+  </si>
+  <si>
+    <t>S 3</t>
+  </si>
+  <si>
+    <t>S 4</t>
+  </si>
+  <si>
+    <t>S 5</t>
+  </si>
+  <si>
+    <t>S 6</t>
+  </si>
+  <si>
+    <t>S 7</t>
+  </si>
+  <si>
+    <t>S 8</t>
+  </si>
+  <si>
+    <t>S 9</t>
+  </si>
+  <si>
+    <t>S 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,7 +118,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -174,6 +193,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -209,6 +245,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -384,17 +437,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:6" x14ac:dyDescent="0.25">
@@ -410,66 +463,116 @@
     </row>
     <row r="5" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>44409</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>3</v>
+        <v>44197</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44203</v>
       </c>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>44410</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>4</v>
+        <v>44204</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44210</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44211</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44217</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44218</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44224</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44225</v>
+      </c>
+      <c r="F9" s="1">
+        <v>44231</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1">
-        <v>44411</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1">
+        <v>44232</v>
+      </c>
+      <c r="F10" s="1">
+        <v>44238</v>
+      </c>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44239</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44245</v>
+      </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44246</v>
+      </c>
+      <c r="F12" s="1">
+        <v>44252</v>
+      </c>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44253</v>
+      </c>
+      <c r="F13" s="1">
+        <v>44259</v>
+      </c>
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44260</v>
+      </c>
+      <c r="F14" s="1">
+        <v>44266</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GestionDesAbsencesMigration/Excel files/importerSemaine.xlsx
+++ b/GestionDesAbsencesMigration/Excel files/importerSemaine.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E7B966-B354-45A5-A879-DC7577D48B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Code</t>
   </si>
@@ -54,12 +53,18 @@
   </si>
   <si>
     <t>S 10</t>
+  </si>
+  <si>
+    <t>S 11</t>
+  </si>
+  <si>
+    <t>S 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,9 +100,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -118,7 +126,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -193,23 +201,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -245,23 +236,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,14 +411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D4:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
@@ -571,8 +545,31 @@
         <v>44266</v>
       </c>
     </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1">
+        <v>44374</v>
+      </c>
+      <c r="F15" s="1">
+        <v>44381</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44388</v>
+      </c>
+      <c r="F16" s="1">
+        <v>44395</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>